--- a/outputs-r202/g__F082.xlsx
+++ b/outputs-r202/g__F082.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -745,6 +750,11 @@
           <t>s__F082 sp900315175</t>
         </is>
       </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>s__F082 sp900315175</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -865,6 +875,11 @@
           <t>s__F082 sp900315175</t>
         </is>
       </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>s__F082 sp900315175</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -985,6 +1000,11 @@
           <t>s__F082 sp900317055</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>s__F082 sp900317055</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1105,6 +1125,11 @@
           <t>s__F082 sp900317155</t>
         </is>
       </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>s__F082 sp900317155</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1225,6 +1250,11 @@
           <t>s__F082 sp900318085</t>
         </is>
       </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>s__F082 sp900318085</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1345,6 +1375,11 @@
           <t>s__F082 sp900318265</t>
         </is>
       </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>s__F082 sp900318265</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1465,6 +1500,11 @@
           <t>s__F082 sp900318465</t>
         </is>
       </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>s__F082 sp900318465</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1585,6 +1625,11 @@
           <t>s__F082 sp902794155</t>
         </is>
       </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>s__F082 sp902794155(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1705,6 +1750,11 @@
           <t>s__F082 sp900318085</t>
         </is>
       </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>s__F082 sp900318085</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1825,6 +1875,11 @@
           <t>s__F082 sp900317155</t>
         </is>
       </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>s__F082 sp900317155</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1945,6 +2000,11 @@
           <t>s__F082 sp900321315</t>
         </is>
       </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>s__F082 sp900321315</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2061,6 +2121,11 @@
         <v>0.9109790083706304</v>
       </c>
       <c r="AL13" t="inlineStr">
+        <is>
+          <t>s__F082 sp900318265</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
         <is>
           <t>s__F082 sp900318265</t>
         </is>
